--- a/results/voters=50_projects=25_true-rankings=2_runs=100_costs-dist=betavariate/threshold_approval.xlsx
+++ b/results/voters=50_projects=25_true-rankings=2_runs=100_costs-dist=betavariate/threshold_approval.xlsx
@@ -595,7 +595,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="b">
         <v>0</v>
       </c>
       <c r="N3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
@@ -698,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="b">
         <v>1</v>
@@ -710,16 +710,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3" t="b">
         <v>0</v>
@@ -732,13 +732,13 @@
         </is>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -750,13 +750,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -771,37 +771,37 @@
         <v>1</v>
       </c>
       <c r="O4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="b">
         <v>0</v>
       </c>
       <c r="R4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" t="b">
         <v>1</v>
       </c>
       <c r="V4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4" t="b">
         <v>0</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -841,31 +841,31 @@
         <v>1</v>
       </c>
       <c r="K5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="b">
         <v>1</v>
       </c>
       <c r="M5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="b">
         <v>1</v>
       </c>
       <c r="O5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="b">
         <v>0</v>
       </c>
       <c r="S5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" t="b">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5" t="b">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -914,7 +914,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
@@ -932,7 +932,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="b">
         <v>1</v>
@@ -944,28 +944,28 @@
         <v>1</v>
       </c>
       <c r="R6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" t="b">
         <v>1</v>
       </c>
       <c r="T6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" t="b">
         <v>1</v>
       </c>
       <c r="V6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="b">
         <v>1</v>
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -1008,46 +1008,46 @@
         <v>0</v>
       </c>
       <c r="L7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="b">
         <v>0</v>
       </c>
       <c r="N7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="b">
         <v>0</v>
       </c>
       <c r="R7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" t="b">
         <v>0</v>
       </c>
       <c r="V7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7" t="b">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -1087,22 +1087,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="b">
         <v>1</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="b">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>1</v>
       </c>
       <c r="S8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" t="b">
         <v>1</v>
@@ -1123,13 +1123,13 @@
         <v>1</v>
       </c>
       <c r="W8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8" t="b">
         <v>0</v>
@@ -1142,22 +1142,22 @@
         </is>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -1169,31 +1169,31 @@
         <v>1</v>
       </c>
       <c r="K9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="b">
         <v>1</v>
       </c>
       <c r="M9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="b">
         <v>0</v>
       </c>
       <c r="S9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" t="b">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="b">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         </is>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -1248,55 +1248,55 @@
         <v>1</v>
       </c>
       <c r="J10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
       </c>
       <c r="L10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="b">
         <v>1</v>
       </c>
       <c r="N10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
         <v>0</v>
       </c>
       <c r="Q10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" t="b">
         <v>0</v>
       </c>
       <c r="U10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" t="b">
         <v>0</v>
       </c>
       <c r="W10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -1327,22 +1327,22 @@
         <v>0</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
       <c r="L11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="b">
         <v>0</v>
       </c>
       <c r="N11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="b">
         <v>0</v>
@@ -1357,28 +1357,28 @@
         <v>0</v>
       </c>
       <c r="S11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" t="b">
         <v>0</v>
       </c>
       <c r="U11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" t="b">
         <v>0</v>
       </c>
       <c r="X11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1388,13 +1388,13 @@
         </is>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
@@ -1427,10 +1427,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="b">
         <v>0</v>
@@ -1451,13 +1451,13 @@
         <v>1</v>
       </c>
       <c r="W12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" t="b">
         <v>0</v>
       </c>
       <c r="Y12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12" t="b">
         <v>0</v>
@@ -1476,73 +1476,73 @@
         <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
       </c>
       <c r="L13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
         <v>0</v>
       </c>
       <c r="Q13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" t="b">
         <v>0</v>
       </c>
       <c r="U13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="b">
         <v>0</v>
       </c>
       <c r="W13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1564,31 +1564,31 @@
         <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
       </c>
       <c r="L14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="b">
         <v>0</v>
       </c>
       <c r="N14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="b">
         <v>0</v>
@@ -1597,19 +1597,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" t="b">
         <v>0</v>
       </c>
       <c r="S14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" t="b">
         <v>0</v>
       </c>
       <c r="U14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" t="b">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="X14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="b">
         <v>1</v>
       </c>
       <c r="Z14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -1652,25 +1652,25 @@
         <v>0</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
       </c>
       <c r="L15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="b">
         <v>0</v>
       </c>
       <c r="N15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="b">
         <v>0</v>
@@ -1682,31 +1682,31 @@
         <v>0</v>
       </c>
       <c r="R15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" t="b">
         <v>0</v>
       </c>
       <c r="T15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" t="b">
         <v>0</v>
       </c>
       <c r="Y15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1719,10 +1719,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -1776,7 +1776,7 @@
         <v>1</v>
       </c>
       <c r="V16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" t="b">
         <v>1</v>
@@ -1785,7 +1785,7 @@
         <v>1</v>
       </c>
       <c r="Y16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16" t="b">
         <v>1</v>
@@ -1798,22 +1798,22 @@
         </is>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -1825,31 +1825,31 @@
         <v>1</v>
       </c>
       <c r="K17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="b">
         <v>1</v>
       </c>
       <c r="M17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="b">
         <v>0</v>
       </c>
       <c r="S17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" t="b">
         <v>0</v>
@@ -1870,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="Z17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1886,31 +1886,31 @@
         <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
       </c>
       <c r="L18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="b">
         <v>0</v>
@@ -1928,22 +1928,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" t="b">
         <v>1</v>
       </c>
       <c r="T18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18" t="b">
         <v>1</v>
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="Z18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1968,73 +1968,73 @@
         <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="b">
         <v>1</v>
       </c>
       <c r="L19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="Q19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" t="b">
         <v>1</v>
       </c>
       <c r="U19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" t="b">
         <v>1</v>
       </c>
       <c r="W19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -2047,37 +2047,37 @@
         <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="b">
         <v>1</v>
       </c>
       <c r="M20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="b">
         <v>1</v>
@@ -2086,10 +2086,10 @@
         <v>1</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" t="b">
         <v>1</v>
@@ -2098,10 +2098,10 @@
         <v>1</v>
       </c>
       <c r="T20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" t="b">
         <v>1</v>
@@ -2116,7 +2116,7 @@
         <v>1</v>
       </c>
       <c r="Z20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2132,13 +2132,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -2147,22 +2147,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
       </c>
       <c r="L21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="b">
         <v>0</v>
       </c>
       <c r="N21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="b">
         <v>0</v>
@@ -2174,31 +2174,31 @@
         <v>0</v>
       </c>
       <c r="R21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" t="b">
         <v>0</v>
       </c>
       <c r="X21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="b">
         <v>1</v>
       </c>
       <c r="Z21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2211,10 +2211,10 @@
         <v>1</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="b">
         <v>1</v>
@@ -2256,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="R22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" t="b">
         <v>1</v>
@@ -2268,7 +2268,7 @@
         <v>1</v>
       </c>
       <c r="V22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" t="b">
         <v>1</v>
@@ -2277,7 +2277,7 @@
         <v>1</v>
       </c>
       <c r="Y22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z22" t="b">
         <v>1</v>
@@ -2296,37 +2296,37 @@
         <v>1</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="b">
         <v>1</v>
       </c>
       <c r="L23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="b">
         <v>1</v>
       </c>
       <c r="N23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="b">
         <v>1</v>
@@ -2338,22 +2338,22 @@
         <v>1</v>
       </c>
       <c r="R23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23" t="b">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Z23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -2402,13 +2402,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="b">
         <v>0</v>
       </c>
       <c r="N24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="b">
         <v>0</v>
@@ -2426,13 +2426,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24" t="b">
         <v>0</v>
       </c>
       <c r="V24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24" t="b">
         <v>0</v>
@@ -2441,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24" t="b">
         <v>0</v>
@@ -2454,31 +2454,31 @@
         </is>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="b">
         <v>1</v>
@@ -2493,31 +2493,31 @@
         <v>0</v>
       </c>
       <c r="O25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="b">
         <v>1</v>
       </c>
       <c r="R25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25" t="b">
         <v>0</v>
       </c>
       <c r="T25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25" t="b">
         <v>0</v>
       </c>
       <c r="V25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" t="b">
         <v>0</v>
@@ -2536,79 +2536,79 @@
         </is>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
       </c>
       <c r="L26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -2621,10 +2621,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -2633,34 +2633,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
       </c>
       <c r="I27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" t="b">
         <v>1</v>
       </c>
       <c r="N27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" t="b">
         <v>1</v>
@@ -2669,10 +2669,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27" t="b">
         <v>1</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z27" t="b">
         <v>1</v>
@@ -2700,40 +2700,40 @@
         </is>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" t="b">
         <v>0</v>
@@ -2742,10 +2742,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28" t="b">
         <v>0</v>
@@ -2754,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U28" t="b">
         <v>1</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="X28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2782,40 +2782,40 @@
         </is>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" t="b">
         <v>0</v>
@@ -2824,10 +2824,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29" t="b">
         <v>0</v>
@@ -2836,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" t="b">
         <v>0</v>
@@ -2848,13 +2848,13 @@
         <v>0</v>
       </c>
       <c r="X29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2867,25 +2867,25 @@
         <v>1</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
       </c>
       <c r="E30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="b">
         <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="b">
         <v>1</v>
       </c>
       <c r="I30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="b">
         <v>1</v>
@@ -2900,10 +2900,10 @@
         <v>1</v>
       </c>
       <c r="N30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
@@ -2912,10 +2912,10 @@
         <v>1</v>
       </c>
       <c r="R30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" t="b">
         <v>1</v>
@@ -2924,10 +2924,10 @@
         <v>1</v>
       </c>
       <c r="V30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30" t="b">
         <v>1</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31" t="b">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z31" t="b">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
@@ -3040,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="b">
         <v>1</v>
@@ -3055,22 +3055,22 @@
         <v>1</v>
       </c>
       <c r="K32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" t="b">
         <v>0</v>
       </c>
       <c r="O32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="b">
         <v>1</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T32" t="b">
         <v>1</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z32" t="b">
         <v>1</v>
@@ -3192,25 +3192,25 @@
         </is>
       </c>
       <c r="B34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="b">
         <v>1</v>
       </c>
       <c r="D34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
       </c>
       <c r="F34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="b">
         <v>1</v>
@@ -3219,22 +3219,22 @@
         <v>1</v>
       </c>
       <c r="K34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="b">
         <v>1</v>
@@ -3243,28 +3243,28 @@
         <v>0</v>
       </c>
       <c r="S34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34" t="b">
         <v>1</v>
       </c>
       <c r="V34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3298,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35" t="b">
         <v>0</v>
@@ -3343,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z35" t="b">
         <v>0</v>
@@ -3365,13 +3365,13 @@
         <v>1</v>
       </c>
       <c r="E36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="b">
         <v>1</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
@@ -3392,10 +3392,10 @@
         <v>1</v>
       </c>
       <c r="N36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
@@ -3404,7 +3404,7 @@
         <v>1</v>
       </c>
       <c r="R36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36" t="b">
         <v>1</v>
@@ -3416,13 +3416,13 @@
         <v>1</v>
       </c>
       <c r="V36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="b">
         <v>1</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
@@ -3459,10 +3459,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="b">
         <v>0</v>
@@ -3492,10 +3492,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V37" t="b">
         <v>0</v>
@@ -3507,10 +3507,10 @@
         <v>0</v>
       </c>
       <c r="Y37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -3523,10 +3523,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
@@ -3535,34 +3535,34 @@
         <v>0</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
       <c r="I38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" t="b">
         <v>0</v>
       </c>
       <c r="L38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" t="b">
         <v>1</v>
       </c>
       <c r="N38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" t="b">
         <v>1</v>
@@ -3571,10 +3571,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38" t="b">
         <v>1</v>
@@ -3589,10 +3589,10 @@
         <v>0</v>
       </c>
       <c r="Y38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="B39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
@@ -3614,13 +3614,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="b">
         <v>1</v>
@@ -3632,16 +3632,16 @@
         <v>1</v>
       </c>
       <c r="L39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" t="b">
         <v>1</v>
       </c>
       <c r="N39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
@@ -3662,16 +3662,16 @@
         <v>1</v>
       </c>
       <c r="V39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W39" t="b">
         <v>0</v>
       </c>
       <c r="X39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z39" t="b">
         <v>1</v>
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="B40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
@@ -3693,13 +3693,13 @@
         <v>1</v>
       </c>
       <c r="E40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="b">
         <v>1</v>
@@ -3732,7 +3732,7 @@
         <v>1</v>
       </c>
       <c r="R40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S40" t="b">
         <v>1</v>
@@ -3744,13 +3744,13 @@
         <v>1</v>
       </c>
       <c r="V40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W40" t="b">
         <v>1</v>
       </c>
       <c r="X40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="b">
         <v>1</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
       </c>
       <c r="L41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41" t="b">
         <v>0</v>
@@ -3820,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U41" t="b">
         <v>1</v>
@@ -3835,10 +3835,10 @@
         <v>0</v>
       </c>
       <c r="Y41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3848,28 +3848,28 @@
         </is>
       </c>
       <c r="B42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="b">
         <v>1</v>
@@ -3878,16 +3878,16 @@
         <v>1</v>
       </c>
       <c r="L42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" t="b">
         <v>1</v>
       </c>
       <c r="N42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42" t="b">
         <v>1</v>
@@ -3911,10 +3911,10 @@
         <v>0</v>
       </c>
       <c r="W42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="b">
         <v>1</v>
@@ -3930,31 +3930,31 @@
         </is>
       </c>
       <c r="B43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" t="b">
         <v>1</v>
@@ -3966,10 +3966,10 @@
         <v>1</v>
       </c>
       <c r="N43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
@@ -3981,7 +3981,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43" t="b">
         <v>1</v>
@@ -3993,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X43" t="b">
         <v>0</v>
@@ -4012,34 +4012,34 @@
         </is>
       </c>
       <c r="B44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" t="b">
         <v>1</v>
@@ -4048,22 +4048,22 @@
         <v>1</v>
       </c>
       <c r="N44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" t="b">
         <v>1</v>
       </c>
       <c r="R44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T44" t="b">
         <v>1</v>
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X44" t="b">
         <v>0</v>
@@ -4094,10 +4094,10 @@
         </is>
       </c>
       <c r="B45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="b">
         <v>1</v>
@@ -4124,16 +4124,16 @@
         <v>1</v>
       </c>
       <c r="L45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45" t="b">
         <v>1</v>
       </c>
       <c r="N45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
@@ -4145,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45" t="b">
         <v>1</v>
@@ -4160,10 +4160,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z45" t="b">
         <v>1</v>
@@ -4176,31 +4176,31 @@
         </is>
       </c>
       <c r="B46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
       <c r="I46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" t="b">
         <v>1</v>
@@ -4212,10 +4212,10 @@
         <v>1</v>
       </c>
       <c r="N46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
@@ -4224,10 +4224,10 @@
         <v>1</v>
       </c>
       <c r="R46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46" t="b">
         <v>1</v>
@@ -4239,10 +4239,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="b">
         <v>1</v>
@@ -4258,7 +4258,7 @@
         </is>
       </c>
       <c r="B47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
@@ -4282,16 +4282,16 @@
         <v>0</v>
       </c>
       <c r="J47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47" t="b">
         <v>0</v>
@@ -4312,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="T47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U47" t="b">
         <v>1</v>
@@ -4327,10 +4327,10 @@
         <v>0</v>
       </c>
       <c r="Y47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -4340,10 +4340,10 @@
         </is>
       </c>
       <c r="B48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
@@ -4352,13 +4352,13 @@
         <v>0</v>
       </c>
       <c r="F48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="b">
         <v>1</v>
@@ -4367,19 +4367,19 @@
         <v>1</v>
       </c>
       <c r="K48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" t="b">
         <v>1</v>
       </c>
       <c r="N48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="S48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48" t="b">
         <v>1</v>
@@ -4406,10 +4406,10 @@
         <v>0</v>
       </c>
       <c r="X48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z48" t="b">
         <v>1</v>
@@ -4422,13 +4422,13 @@
         </is>
       </c>
       <c r="B49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
@@ -4437,31 +4437,31 @@
         <v>0</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
       <c r="I49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" t="b">
         <v>1</v>
       </c>
       <c r="L49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" t="b">
         <v>1</v>
       </c>
       <c r="N49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
@@ -4473,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="S49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49" t="b">
         <v>1</v>
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="W49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X49" t="b">
         <v>0</v>
@@ -4504,13 +4504,13 @@
         </is>
       </c>
       <c r="B50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
@@ -4522,31 +4522,31 @@
         <v>0</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50" t="b">
         <v>0</v>
       </c>
       <c r="O50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="b">
         <v>1</v>
@@ -4570,13 +4570,13 @@
         <v>0</v>
       </c>
       <c r="X50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -4589,10 +4589,10 @@
         <v>0</v>
       </c>
       <c r="C51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
@@ -4601,31 +4601,31 @@
         <v>0</v>
       </c>
       <c r="G51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
       <c r="I51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
       </c>
       <c r="L51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51" t="b">
         <v>0</v>
       </c>
       <c r="O51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" t="b">
         <v>0</v>
@@ -4637,10 +4637,10 @@
         <v>0</v>
       </c>
       <c r="S51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U51" t="b">
         <v>1</v>
@@ -4655,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="Y51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z51" t="b">
         <v>1</v>
